--- a/Projektleiter/Rollenverteilung.xlsx
+++ b/Projektleiter/Rollenverteilung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefan Nemanja\Desktop\Uni\3 Semester\Softwareengineering\GitRepository MWfDD\Projektleiter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75603089-3727-4D16-B1F5-1B9BD886705B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B4F63D-F884-4D8B-BE00-D71DD6F46672}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Projektleiter</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t> Stefan-Nemanja Banov (inf19014@lehre.dhbw-stuttgart.de)</t>
+  </si>
+  <si>
+    <t>Phillip Thanh Vu Tran (inf19105@lehre.dhbw-stuttgart.de)</t>
   </si>
 </sst>
 </file>
@@ -384,12 +387,13 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -404,6 +408,9 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -428,8 +435,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" display="mailto:inf19014@lehre.dhbw-stuttgart.de" xr:uid="{C39F56C3-D693-4E67-95AE-FB38D813F10A}"/>
+    <hyperlink ref="B2" r:id="rId2" display="mailto:inf19105@lehre.dhbw-stuttgart.de" xr:uid="{26DA8910-D73E-464D-B11F-9AFB664FEFC6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>